--- a/ZR/function/r .xlsx
+++ b/ZR/function/r .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20805" windowHeight="7845" activeTab="2"/>
+    <workbookView windowWidth="20805" windowHeight="7845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用例" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351">
   <si>
     <t>普通案件报案接口-zr</t>
   </si>
@@ -1463,13 +1463,19 @@
     <t>110112113114</t>
   </si>
   <si>
+    <t>1110112113116</t>
+  </si>
+  <si>
+    <t>jt_15000015010072f14a93cf634b23ac70c602aa7653df</t>
+  </si>
+  <si>
     <t>policy_no（保单号）</t>
   </si>
   <si>
     <t>RV2H227002017900189</t>
   </si>
   <si>
-    <t>YZ-101</t>
+    <t>YZ-102</t>
   </si>
   <si>
     <t>出险房源地址</t>
@@ -1481,13 +1487,10 @@
     <t>保险公司来源</t>
   </si>
   <si>
-    <t>180btk69juwlxj62mb1030odkj5cf00x</t>
+    <t>jts0oe7silrxv3upx5</t>
   </si>
   <si>
     <t>自如来源</t>
-  </si>
-  <si>
-    <t>jts0oe7silrxv3upx5</t>
   </si>
   <si>
     <t>10.10.62.88:8083</t>
@@ -1501,18 +1504,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11.5"/>
@@ -1532,13 +1541,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1549,13 +1551,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,6 +1589,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1610,6 +1612,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,31 +1772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,7 +1856,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1884,6 +1875,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1919,6 +1916,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1938,6 +1941,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2090,10 +2099,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2102,144 +2111,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2251,19 +2263,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2278,7 +2290,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2315,6 +2327,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2678,99 +2693,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -2779,91 +2794,91 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
@@ -2872,583 +2887,583 @@
       <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="27" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="27" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="27" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="27" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26" t="s">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="27" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
@@ -3467,8 +3482,8 @@
   <sheetPr/>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3482,1042 +3497,1042 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" customFormat="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="27" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:6">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:6">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:6">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:6">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:6">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:6">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:6">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" customFormat="1" spans="1:6">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:6">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:6">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="14" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:6">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="14" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:6">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="14" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:6">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:6">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:4">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:6">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="F51" s="24"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" customFormat="1" spans="1:6">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:6">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:6">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="14" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:6">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="14" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:6">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:6">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="14" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:4">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="14" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:4">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:4">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="14" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="14" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:2">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:2">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:2">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="14" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4543,13 +4558,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="40.5" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
@@ -4560,47 +4575,53 @@
       <c r="A1" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>62222519</v>
+      </c>
+      <c r="C3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>62222519</v>
       </c>
     </row>
@@ -4608,29 +4629,29 @@
       <c r="A7" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>341</v>
+      <c r="B7" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
         <v>347</v>
@@ -4659,12 +4680,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
